--- a/Trabalho_daniel_final_atualizado2.xlsx
+++ b/Trabalho_daniel_final_atualizado2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\Supermercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7977D510-BBA1-40F0-88C9-C3C95130F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3B96D-EF3D-4F8C-B1CA-0AFFA309FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
     <t>Grãos</t>
   </si>
   <si>
-    <t>2024-23-06</t>
+    <t xml:space="preserve"> 2024-06-23</t>
   </si>
 </sst>
 </file>
@@ -472,12 +472,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +786,7 @@
   <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E263" sqref="E263"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +823,7 @@
       <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E2" t="s">
@@ -839,7 +840,7 @@
       <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E3" t="s">
@@ -856,7 +857,7 @@
       <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E4" t="s">
@@ -873,7 +874,7 @@
       <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E5" t="s">
@@ -890,7 +891,7 @@
       <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E6" t="s">
@@ -907,7 +908,7 @@
       <c r="C7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E7" t="s">
@@ -924,7 +925,7 @@
       <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E8" t="s">
@@ -941,7 +942,7 @@
       <c r="C9" t="s">
         <v>110</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E9" t="s">
@@ -958,7 +959,7 @@
       <c r="C10" t="s">
         <v>110</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E10" t="s">
@@ -975,7 +976,7 @@
       <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
@@ -992,7 +993,7 @@
       <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E12" t="s">
@@ -1009,7 +1010,7 @@
       <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E13" t="s">
@@ -1026,7 +1027,7 @@
       <c r="C14" t="s">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E14" t="s">
@@ -1043,7 +1044,7 @@
       <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E15" t="s">
@@ -1060,7 +1061,7 @@
       <c r="C16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E16" t="s">
@@ -1077,7 +1078,7 @@
       <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E17" t="s">
@@ -1094,7 +1095,7 @@
       <c r="C18" t="s">
         <v>110</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E18" t="s">
@@ -1111,7 +1112,7 @@
       <c r="C19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E19" t="s">
@@ -1128,7 +1129,7 @@
       <c r="C20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E20" t="s">
@@ -1145,7 +1146,7 @@
       <c r="C21" t="s">
         <v>110</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E21" t="s">
@@ -1162,7 +1163,7 @@
       <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E22" t="s">
@@ -1179,7 +1180,7 @@
       <c r="C23" t="s">
         <v>110</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E23" t="s">
@@ -1196,7 +1197,7 @@
       <c r="C24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
@@ -1213,7 +1214,7 @@
       <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E25" t="s">
@@ -1230,7 +1231,7 @@
       <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E26" t="s">
@@ -1247,7 +1248,7 @@
       <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E27" t="s">
@@ -1264,7 +1265,7 @@
       <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E28" t="s">
@@ -1281,7 +1282,7 @@
       <c r="C29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E29" t="s">
@@ -1298,7 +1299,7 @@
       <c r="C30" t="s">
         <v>110</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E30" t="s">
@@ -1315,7 +1316,7 @@
       <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1332,7 +1333,7 @@
       <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1349,7 +1350,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1366,7 +1367,7 @@
       <c r="C34" t="s">
         <v>110</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1383,7 +1384,7 @@
       <c r="C35" t="s">
         <v>110</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1400,7 +1401,7 @@
       <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1417,7 +1418,7 @@
       <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1434,7 +1435,7 @@
       <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1451,7 +1452,7 @@
       <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E39" t="s">
@@ -1468,7 +1469,7 @@
       <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E40" t="s">
@@ -1485,7 +1486,7 @@
       <c r="C41" t="s">
         <v>110</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E41" t="s">
@@ -1502,7 +1503,7 @@
       <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E42" t="s">
@@ -1519,7 +1520,7 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E43" t="s">
@@ -1536,7 +1537,7 @@
       <c r="C44" t="s">
         <v>110</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E44" t="s">
@@ -1553,7 +1554,7 @@
       <c r="C45" t="s">
         <v>110</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E45" t="s">
@@ -1570,7 +1571,7 @@
       <c r="C46" t="s">
         <v>110</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E46" t="s">
@@ -1587,7 +1588,7 @@
       <c r="C47" t="s">
         <v>110</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E47" t="s">
@@ -1604,7 +1605,7 @@
       <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E48" t="s">
@@ -1621,7 +1622,7 @@
       <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E49" t="s">
@@ -1638,7 +1639,7 @@
       <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E50" t="s">
@@ -1655,7 +1656,7 @@
       <c r="C51" t="s">
         <v>110</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E51" t="s">
@@ -1672,7 +1673,7 @@
       <c r="C52" t="s">
         <v>110</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E52" t="s">
@@ -1689,7 +1690,7 @@
       <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E53" t="s">
@@ -1706,7 +1707,7 @@
       <c r="C54" t="s">
         <v>110</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E54" t="s">
@@ -1723,7 +1724,7 @@
       <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E55" t="s">
@@ -1740,7 +1741,7 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E56" t="s">
@@ -1757,7 +1758,7 @@
       <c r="C57" t="s">
         <v>110</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E57" t="s">
@@ -1774,7 +1775,7 @@
       <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E58" t="s">
@@ -1791,7 +1792,7 @@
       <c r="C59" t="s">
         <v>111</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E59" t="s">
@@ -1808,7 +1809,7 @@
       <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E60" t="s">
@@ -1825,7 +1826,7 @@
       <c r="C61" t="s">
         <v>111</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E61" t="s">
@@ -1842,7 +1843,7 @@
       <c r="C62" t="s">
         <v>111</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E62" t="s">
@@ -1859,7 +1860,7 @@
       <c r="C63" t="s">
         <v>111</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E63" t="s">
@@ -1876,7 +1877,7 @@
       <c r="C64" t="s">
         <v>111</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E64" t="s">
@@ -1893,7 +1894,7 @@
       <c r="C65" t="s">
         <v>111</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E65" t="s">
@@ -1910,7 +1911,7 @@
       <c r="C66" t="s">
         <v>111</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E66" t="s">
@@ -1927,7 +1928,7 @@
       <c r="C67" t="s">
         <v>111</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E67" t="s">
@@ -1944,7 +1945,7 @@
       <c r="C68" t="s">
         <v>111</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E68" t="s">
@@ -1961,7 +1962,7 @@
       <c r="C69" t="s">
         <v>111</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E69" t="s">
@@ -1978,7 +1979,7 @@
       <c r="C70" t="s">
         <v>111</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E70" t="s">
@@ -1995,7 +1996,7 @@
       <c r="C71" t="s">
         <v>111</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E71" t="s">
@@ -2012,7 +2013,7 @@
       <c r="C72" t="s">
         <v>111</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E72" t="s">
@@ -2029,7 +2030,7 @@
       <c r="C73" t="s">
         <v>111</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E73" t="s">
@@ -2046,7 +2047,7 @@
       <c r="C74" t="s">
         <v>111</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E74" t="s">
@@ -2063,7 +2064,7 @@
       <c r="C75" t="s">
         <v>111</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E75" t="s">
@@ -2080,7 +2081,7 @@
       <c r="C76" t="s">
         <v>111</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E76" t="s">
@@ -2097,7 +2098,7 @@
       <c r="C77" t="s">
         <v>111</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E77" t="s">
@@ -2114,7 +2115,7 @@
       <c r="C78" t="s">
         <v>111</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E78" t="s">
@@ -2131,7 +2132,7 @@
       <c r="C79" t="s">
         <v>111</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E79" t="s">
@@ -2148,7 +2149,7 @@
       <c r="C80" t="s">
         <v>111</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E80" t="s">
@@ -2165,7 +2166,7 @@
       <c r="C81" t="s">
         <v>111</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E81" t="s">
@@ -2182,7 +2183,7 @@
       <c r="C82" t="s">
         <v>111</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E82" t="s">
@@ -2199,7 +2200,7 @@
       <c r="C83" t="s">
         <v>111</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E83" t="s">
@@ -2216,7 +2217,7 @@
       <c r="C84" t="s">
         <v>111</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E84" t="s">
@@ -2233,7 +2234,7 @@
       <c r="C85" t="s">
         <v>111</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -2250,7 +2251,7 @@
       <c r="C86" t="s">
         <v>111</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2267,7 +2268,7 @@
       <c r="C87" t="s">
         <v>111</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -2284,7 +2285,7 @@
       <c r="C88" t="s">
         <v>111</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -2301,7 +2302,7 @@
       <c r="C89" t="s">
         <v>111</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2318,7 +2319,7 @@
       <c r="C90" t="s">
         <v>111</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -2335,7 +2336,7 @@
       <c r="C91" t="s">
         <v>111</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2352,7 +2353,7 @@
       <c r="C92" t="s">
         <v>111</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -2369,7 +2370,7 @@
       <c r="C93" t="s">
         <v>111</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E93" t="s">
@@ -2386,7 +2387,7 @@
       <c r="C94" t="s">
         <v>111</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E94" t="s">
@@ -2403,7 +2404,7 @@
       <c r="C95" t="s">
         <v>111</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E95" t="s">
@@ -2420,7 +2421,7 @@
       <c r="C96" t="s">
         <v>111</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E96" t="s">
@@ -2437,7 +2438,7 @@
       <c r="C97" t="s">
         <v>111</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E97" t="s">
@@ -2454,7 +2455,7 @@
       <c r="C98" t="s">
         <v>111</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E98" t="s">
@@ -2471,7 +2472,7 @@
       <c r="C99" t="s">
         <v>111</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E99" t="s">
@@ -2488,7 +2489,7 @@
       <c r="C100" t="s">
         <v>111</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E100" t="s">
@@ -2505,7 +2506,7 @@
       <c r="C101" t="s">
         <v>111</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E101" t="s">
@@ -2522,7 +2523,7 @@
       <c r="C102" t="s">
         <v>111</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E102" t="s">
@@ -2539,7 +2540,7 @@
       <c r="C103" t="s">
         <v>111</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E103" t="s">
@@ -2556,7 +2557,7 @@
       <c r="C104" t="s">
         <v>111</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E104" t="s">
@@ -2573,7 +2574,7 @@
       <c r="C105" t="s">
         <v>111</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E105" t="s">
@@ -2590,7 +2591,7 @@
       <c r="C106" t="s">
         <v>111</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E106" t="s">
@@ -2607,7 +2608,7 @@
       <c r="C107" t="s">
         <v>111</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E107" t="s">
@@ -2624,7 +2625,7 @@
       <c r="C108" t="s">
         <v>111</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E108" t="s">
@@ -2641,7 +2642,7 @@
       <c r="C109" t="s">
         <v>111</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E109" t="s">
@@ -2658,7 +2659,7 @@
       <c r="C110" t="s">
         <v>111</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E110" t="s">
@@ -2675,7 +2676,7 @@
       <c r="C111" t="s">
         <v>112</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E111" t="s">
@@ -2692,7 +2693,7 @@
       <c r="C112" t="s">
         <v>112</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E112" t="s">
@@ -2709,7 +2710,7 @@
       <c r="C113" t="s">
         <v>112</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E113" t="s">
@@ -2726,7 +2727,7 @@
       <c r="C114" t="s">
         <v>112</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E114" t="s">
@@ -2743,7 +2744,7 @@
       <c r="C115" t="s">
         <v>112</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E115" t="s">
@@ -2760,7 +2761,7 @@
       <c r="C116" t="s">
         <v>112</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E116" t="s">
@@ -2777,7 +2778,7 @@
       <c r="C117" t="s">
         <v>112</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E117" t="s">
@@ -2794,7 +2795,7 @@
       <c r="C118" t="s">
         <v>112</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E118" t="s">
@@ -2811,7 +2812,7 @@
       <c r="C119" t="s">
         <v>112</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E119" t="s">
@@ -2828,7 +2829,7 @@
       <c r="C120" t="s">
         <v>112</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E120" t="s">
@@ -2845,7 +2846,7 @@
       <c r="C121" t="s">
         <v>112</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E121" t="s">
@@ -2862,7 +2863,7 @@
       <c r="C122" t="s">
         <v>112</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E122" t="s">
@@ -2879,7 +2880,7 @@
       <c r="C123" t="s">
         <v>112</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E123" t="s">
@@ -2896,7 +2897,7 @@
       <c r="C124" t="s">
         <v>112</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E124" t="s">
@@ -2913,7 +2914,7 @@
       <c r="C125" t="s">
         <v>112</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E125" t="s">
@@ -2930,7 +2931,7 @@
       <c r="C126" t="s">
         <v>112</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E126" t="s">
@@ -2947,7 +2948,7 @@
       <c r="C127" t="s">
         <v>112</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E127" t="s">
@@ -2964,7 +2965,7 @@
       <c r="C128" t="s">
         <v>112</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E128" t="s">
@@ -2981,7 +2982,7 @@
       <c r="C129" t="s">
         <v>112</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E129" t="s">
@@ -2998,7 +2999,7 @@
       <c r="C130" t="s">
         <v>112</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E130" t="s">
@@ -3015,7 +3016,7 @@
       <c r="C131" t="s">
         <v>112</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E131" t="s">
@@ -3032,7 +3033,7 @@
       <c r="C132" t="s">
         <v>112</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E132" t="s">
@@ -3049,7 +3050,7 @@
       <c r="C133" t="s">
         <v>112</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E133" t="s">
@@ -3066,7 +3067,7 @@
       <c r="C134" t="s">
         <v>112</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E134" t="s">
@@ -3083,7 +3084,7 @@
       <c r="C135" t="s">
         <v>112</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E135" t="s">
@@ -3100,7 +3101,7 @@
       <c r="C136" t="s">
         <v>112</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E136" t="s">
@@ -3117,7 +3118,7 @@
       <c r="C137" t="s">
         <v>112</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E137" t="s">
@@ -3134,7 +3135,7 @@
       <c r="C138" t="s">
         <v>112</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E138" t="s">
@@ -3151,7 +3152,7 @@
       <c r="C139" t="s">
         <v>112</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E139" t="s">
@@ -3168,7 +3169,7 @@
       <c r="C140" t="s">
         <v>112</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -3185,7 +3186,7 @@
       <c r="C141" t="s">
         <v>112</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -3202,7 +3203,7 @@
       <c r="C142" t="s">
         <v>112</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -3219,7 +3220,7 @@
       <c r="C143" t="s">
         <v>112</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3236,7 +3237,7 @@
       <c r="C144" t="s">
         <v>112</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -3253,7 +3254,7 @@
       <c r="C145" t="s">
         <v>112</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -3270,7 +3271,7 @@
       <c r="C146" t="s">
         <v>112</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -3287,7 +3288,7 @@
       <c r="C147" t="s">
         <v>112</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -3304,7 +3305,7 @@
       <c r="C148" t="s">
         <v>112</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E148" t="s">
@@ -3321,7 +3322,7 @@
       <c r="C149" t="s">
         <v>112</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E149" t="s">
@@ -3338,7 +3339,7 @@
       <c r="C150" t="s">
         <v>112</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E150" t="s">
@@ -3355,7 +3356,7 @@
       <c r="C151" t="s">
         <v>112</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E151" t="s">
@@ -3372,7 +3373,7 @@
       <c r="C152" t="s">
         <v>112</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E152" t="s">
@@ -3389,7 +3390,7 @@
       <c r="C153" t="s">
         <v>112</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E153" t="s">
@@ -3406,7 +3407,7 @@
       <c r="C154" t="s">
         <v>112</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E154" t="s">
@@ -3423,7 +3424,7 @@
       <c r="C155" t="s">
         <v>112</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E155" t="s">
@@ -3440,7 +3441,7 @@
       <c r="C156" t="s">
         <v>112</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E156" t="s">
@@ -3457,7 +3458,7 @@
       <c r="C157" t="s">
         <v>112</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E157" t="s">
@@ -3474,7 +3475,7 @@
       <c r="C158" t="s">
         <v>112</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E158" t="s">
@@ -3491,7 +3492,7 @@
       <c r="C159" t="s">
         <v>112</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E159" t="s">
@@ -3508,7 +3509,7 @@
       <c r="C160" t="s">
         <v>112</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E160" t="s">
@@ -3525,7 +3526,7 @@
       <c r="C161" t="s">
         <v>112</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E161" t="s">
@@ -3542,7 +3543,7 @@
       <c r="C162" t="s">
         <v>112</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E162" t="s">
@@ -3559,7 +3560,7 @@
       <c r="C163" t="s">
         <v>112</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E163" t="s">
@@ -3576,7 +3577,7 @@
       <c r="C164" t="s">
         <v>112</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E164" t="s">
@@ -3593,7 +3594,7 @@
       <c r="C165" t="s">
         <v>112</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E165" t="s">
@@ -3610,7 +3611,7 @@
       <c r="C166" t="s">
         <v>112</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E166" t="s">
@@ -3627,7 +3628,7 @@
       <c r="C167" t="s">
         <v>113</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E167" t="s">
@@ -3644,7 +3645,7 @@
       <c r="C168" t="s">
         <v>113</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E168" t="s">
@@ -3661,7 +3662,7 @@
       <c r="C169" t="s">
         <v>113</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E169" t="s">
@@ -3678,7 +3679,7 @@
       <c r="C170" t="s">
         <v>113</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E170" t="s">
@@ -3695,7 +3696,7 @@
       <c r="C171" t="s">
         <v>113</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E171" t="s">
@@ -3712,7 +3713,7 @@
       <c r="C172" t="s">
         <v>113</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E172" t="s">
@@ -3729,7 +3730,7 @@
       <c r="C173" t="s">
         <v>113</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E173" t="s">
@@ -3746,7 +3747,7 @@
       <c r="C174" t="s">
         <v>113</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E174" t="s">
@@ -3763,7 +3764,7 @@
       <c r="C175" t="s">
         <v>113</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E175" t="s">
@@ -3780,7 +3781,7 @@
       <c r="C176" t="s">
         <v>113</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E176" t="s">
@@ -3797,7 +3798,7 @@
       <c r="C177" t="s">
         <v>113</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E177" t="s">
@@ -3814,7 +3815,7 @@
       <c r="C178" t="s">
         <v>113</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E178" t="s">
@@ -3831,7 +3832,7 @@
       <c r="C179" t="s">
         <v>113</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E179" t="s">
@@ -3848,7 +3849,7 @@
       <c r="C180" t="s">
         <v>113</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E180" t="s">
@@ -3865,7 +3866,7 @@
       <c r="C181" t="s">
         <v>113</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E181" t="s">
@@ -3882,7 +3883,7 @@
       <c r="C182" t="s">
         <v>113</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E182" t="s">
@@ -3899,7 +3900,7 @@
       <c r="C183" t="s">
         <v>113</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E183" t="s">
@@ -3916,7 +3917,7 @@
       <c r="C184" t="s">
         <v>113</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E184" t="s">
@@ -3933,7 +3934,7 @@
       <c r="C185" t="s">
         <v>113</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E185" t="s">
@@ -3950,7 +3951,7 @@
       <c r="C186" t="s">
         <v>113</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E186" t="s">
@@ -3967,7 +3968,7 @@
       <c r="C187" t="s">
         <v>113</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E187" t="s">
@@ -3984,7 +3985,7 @@
       <c r="C188" t="s">
         <v>113</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E188" t="s">
@@ -4001,7 +4002,7 @@
       <c r="C189" t="s">
         <v>113</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E189" t="s">
@@ -4018,7 +4019,7 @@
       <c r="C190" t="s">
         <v>113</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E190" t="s">
@@ -4035,7 +4036,7 @@
       <c r="C191" t="s">
         <v>113</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E191" t="s">
@@ -4052,7 +4053,7 @@
       <c r="C192" t="s">
         <v>113</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E192" t="s">
@@ -4069,7 +4070,7 @@
       <c r="C193" t="s">
         <v>113</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -4086,7 +4087,7 @@
       <c r="C194" t="s">
         <v>113</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -4103,7 +4104,7 @@
       <c r="C195" t="s">
         <v>113</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4120,7 +4121,7 @@
       <c r="C196" t="s">
         <v>113</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -4137,7 +4138,7 @@
       <c r="C197" t="s">
         <v>113</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -4154,7 +4155,7 @@
       <c r="C198" t="s">
         <v>113</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -4171,7 +4172,7 @@
       <c r="C199" t="s">
         <v>113</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E199" t="s">
@@ -4188,7 +4189,7 @@
       <c r="C200" t="s">
         <v>113</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E200" t="s">
@@ -4205,7 +4206,7 @@
       <c r="C201" t="s">
         <v>113</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E201" t="s">
@@ -4222,7 +4223,7 @@
       <c r="C202" t="s">
         <v>113</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E202" t="s">
@@ -4239,7 +4240,7 @@
       <c r="C203" t="s">
         <v>113</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E203" t="s">
@@ -4256,7 +4257,7 @@
       <c r="C204" t="s">
         <v>113</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E204" t="s">
@@ -4273,7 +4274,7 @@
       <c r="C205" t="s">
         <v>113</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E205" t="s">
@@ -4290,7 +4291,7 @@
       <c r="C206" t="s">
         <v>113</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E206" t="s">
@@ -4307,7 +4308,7 @@
       <c r="C207" t="s">
         <v>113</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E207" t="s">
@@ -4324,7 +4325,7 @@
       <c r="C208" t="s">
         <v>113</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E208" t="s">
@@ -4341,7 +4342,7 @@
       <c r="C209" t="s">
         <v>113</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E209" t="s">
@@ -4358,7 +4359,7 @@
       <c r="C210" t="s">
         <v>113</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E210" t="s">
@@ -4375,7 +4376,7 @@
       <c r="C211" t="s">
         <v>113</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E211" t="s">
@@ -4392,7 +4393,7 @@
       <c r="C212" t="s">
         <v>113</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E212" t="s">
@@ -4409,7 +4410,7 @@
       <c r="C213" t="s">
         <v>113</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E213" t="s">
@@ -4426,7 +4427,7 @@
       <c r="C214" t="s">
         <v>113</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E214" t="s">
@@ -4443,7 +4444,7 @@
       <c r="C215" t="s">
         <v>113</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E215" t="s">
@@ -4460,7 +4461,7 @@
       <c r="C216" t="s">
         <v>113</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E216" t="s">
@@ -4477,7 +4478,7 @@
       <c r="C217" t="s">
         <v>114</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E217" t="s">
@@ -4494,7 +4495,7 @@
       <c r="C218" t="s">
         <v>114</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E218" t="s">
@@ -4511,7 +4512,7 @@
       <c r="C219" t="s">
         <v>114</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E219" t="s">
@@ -4528,7 +4529,7 @@
       <c r="C220" t="s">
         <v>114</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E220" t="s">
@@ -4545,7 +4546,7 @@
       <c r="C221" t="s">
         <v>114</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E221" t="s">
@@ -4562,7 +4563,7 @@
       <c r="C222" t="s">
         <v>114</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E222" t="s">
@@ -4579,7 +4580,7 @@
       <c r="C223" t="s">
         <v>114</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E223" t="s">
@@ -4596,7 +4597,7 @@
       <c r="C224" t="s">
         <v>114</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E224" t="s">
@@ -4613,7 +4614,7 @@
       <c r="C225" t="s">
         <v>114</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E225" t="s">
@@ -4630,7 +4631,7 @@
       <c r="C226" t="s">
         <v>114</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E226" t="s">
@@ -4647,7 +4648,7 @@
       <c r="C227" t="s">
         <v>114</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E227" t="s">
@@ -4664,7 +4665,7 @@
       <c r="C228" t="s">
         <v>114</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E228" t="s">
@@ -4681,7 +4682,7 @@
       <c r="C229" t="s">
         <v>114</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E229" t="s">
@@ -4698,7 +4699,7 @@
       <c r="C230" t="s">
         <v>114</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E230" t="s">
@@ -4715,7 +4716,7 @@
       <c r="C231" t="s">
         <v>114</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E231" t="s">
@@ -4732,7 +4733,7 @@
       <c r="C232" t="s">
         <v>114</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E232" t="s">
@@ -4749,7 +4750,7 @@
       <c r="C233" t="s">
         <v>114</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E233" t="s">
@@ -4766,7 +4767,7 @@
       <c r="C234" t="s">
         <v>114</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E234" t="s">
@@ -4783,7 +4784,7 @@
       <c r="C235" t="s">
         <v>114</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E235" t="s">
@@ -4800,7 +4801,7 @@
       <c r="C236" t="s">
         <v>114</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E236" t="s">
@@ -4817,7 +4818,7 @@
       <c r="C237" t="s">
         <v>114</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E237" t="s">
@@ -4834,7 +4835,7 @@
       <c r="C238" t="s">
         <v>114</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E238" t="s">
@@ -4851,7 +4852,7 @@
       <c r="C239" t="s">
         <v>114</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E239" t="s">
@@ -4868,7 +4869,7 @@
       <c r="C240" t="s">
         <v>114</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E240" t="s">
@@ -4885,7 +4886,7 @@
       <c r="C241" t="s">
         <v>114</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E241" t="s">
@@ -4902,7 +4903,7 @@
       <c r="C242" t="s">
         <v>114</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E242" t="s">
@@ -4919,7 +4920,7 @@
       <c r="C243" t="s">
         <v>114</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E243" t="s">
@@ -4936,7 +4937,7 @@
       <c r="C244" t="s">
         <v>114</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E244" t="s">
@@ -4953,7 +4954,7 @@
       <c r="C245" t="s">
         <v>114</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E245" s="2" t="s">
@@ -4970,7 +4971,7 @@
       <c r="C246" t="s">
         <v>114</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E246" s="2" t="s">
@@ -4987,7 +4988,7 @@
       <c r="C247" t="s">
         <v>114</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -5004,7 +5005,7 @@
       <c r="C248" t="s">
         <v>114</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -5021,7 +5022,7 @@
       <c r="C249" t="s">
         <v>114</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -5038,7 +5039,7 @@
       <c r="C250" t="s">
         <v>114</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E250" s="2" t="s">
@@ -5055,7 +5056,7 @@
       <c r="C251" t="s">
         <v>114</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E251" s="2" t="s">
@@ -5072,7 +5073,7 @@
       <c r="C252" t="s">
         <v>114</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -5089,7 +5090,7 @@
       <c r="C253" t="s">
         <v>114</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E253" t="s">
@@ -5106,7 +5107,7 @@
       <c r="C254" t="s">
         <v>114</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E254" t="s">
@@ -5123,7 +5124,7 @@
       <c r="C255" t="s">
         <v>114</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E255" t="s">
@@ -5140,7 +5141,7 @@
       <c r="C256" t="s">
         <v>114</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E256" t="s">
@@ -5157,7 +5158,7 @@
       <c r="C257" t="s">
         <v>114</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E257" t="s">
@@ -5174,7 +5175,7 @@
       <c r="C258" t="s">
         <v>114</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E258" t="s">
@@ -5191,7 +5192,7 @@
       <c r="C259" t="s">
         <v>114</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E259" t="s">
@@ -5208,7 +5209,7 @@
       <c r="C260" t="s">
         <v>114</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E260" t="s">
@@ -5225,7 +5226,7 @@
       <c r="C261" t="s">
         <v>114</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E261" t="s">
@@ -5242,7 +5243,7 @@
       <c r="C262" t="s">
         <v>114</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E262" t="s">
@@ -5259,7 +5260,7 @@
       <c r="C263" t="s">
         <v>114</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E263" t="s">
@@ -5276,7 +5277,7 @@
       <c r="C264" t="s">
         <v>114</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E264" t="s">
@@ -5293,7 +5294,7 @@
       <c r="C265" t="s">
         <v>114</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E265" t="s">
@@ -5310,7 +5311,7 @@
       <c r="C266" t="s">
         <v>114</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E266" t="s">
@@ -5327,7 +5328,7 @@
       <c r="C267" t="s">
         <v>114</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E267" t="s">
@@ -5344,7 +5345,7 @@
       <c r="C268" t="s">
         <v>114</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E268" t="s">
@@ -5361,7 +5362,7 @@
       <c r="C269" t="s">
         <v>114</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E269" t="s">
@@ -5378,7 +5379,7 @@
       <c r="C270" t="s">
         <v>114</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E270" t="s">
@@ -5395,7 +5396,7 @@
       <c r="C271" t="s">
         <v>114</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E271" t="s">
@@ -5412,7 +5413,7 @@
       <c r="C272" t="s">
         <v>114</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E272" t="s">
@@ -5422,5 +5423,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>